--- a/po_analysis_by_asin/B08YMLHP1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMLHP1Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -663,6 +664,383 @@
       </c>
       <c r="B8" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.09779519476231546</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.5175760977157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.936134972309997</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.59432250146994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.508564285648274</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.90547549034741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.947226980320172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.98357257510425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.785475313520616</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.95362048413374</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.34216257215018</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33.91082164608902</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.332095785972117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.98856411559374</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.226834162814677</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.77133612546145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.376124503698311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.73415381962095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.89718018879696</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34.06976786651674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.49402824134867</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.816638154279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.997032029896718</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.36150918382533</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.652807813411259</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33.6543137993653</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.952292019739362</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34.13112665635121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.283195219147673</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35.81748056881805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.397858140124777</v>
+      </c>
+      <c r="D17" t="n">
+        <v>34.83650719984336</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.079290489776307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.49536733304802</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.827125479791554</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36.03957524738408</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.46364533686632</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.0147471059265</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.299777153682541</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.18198519644645</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.199988969799558</v>
+      </c>
+      <c r="D22" t="n">
+        <v>36.34894828931417</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.471067964058888</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36.21702766892296</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.273352772438047</v>
+      </c>
+      <c r="D24" t="n">
+        <v>37.15463035124446</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.240718328949457</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36.70630594216842</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08YMLHP1Z_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMLHP1Z_po_data.xlsx
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,16 +696,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -714,12 +704,6 @@
       <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.09779519476231546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.5175760977157</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -728,12 +712,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.936134972309997</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.59432250146994</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -742,12 +720,6 @@
       <c r="B4" t="n">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.508564285648274</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.90547549034741</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -756,12 +728,6 @@
       <c r="B5" t="n">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.947226980320172</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.98357257510425</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -770,12 +736,6 @@
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.785475313520616</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.95362048413374</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -784,12 +744,6 @@
       <c r="B7" t="n">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.34216257215018</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33.91082164608902</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -798,12 +752,6 @@
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.332095785972117</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.98856411559374</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -812,12 +760,6 @@
       <c r="B9" t="n">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.226834162814677</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.77133612546145</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -826,12 +768,6 @@
       <c r="B10" t="n">
         <v>19</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.376124503698311</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.73415381962095</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -840,12 +776,6 @@
       <c r="B11" t="n">
         <v>19</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.89718018879696</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.06976786651674</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -854,12 +784,6 @@
       <c r="B12" t="n">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.49402824134867</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34.816638154279</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -868,12 +792,6 @@
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.997032029896718</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34.36150918382533</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -882,12 +800,6 @@
       <c r="B14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.652807813411259</v>
-      </c>
-      <c r="D14" t="n">
-        <v>33.6543137993653</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -896,12 +808,6 @@
       <c r="B15" t="n">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.952292019739362</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34.13112665635121</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -910,12 +816,6 @@
       <c r="B16" t="n">
         <v>20</v>
       </c>
-      <c r="C16" t="n">
-        <v>5.283195219147673</v>
-      </c>
-      <c r="D16" t="n">
-        <v>35.81748056881805</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -924,12 +824,6 @@
       <c r="B17" t="n">
         <v>21</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.397858140124777</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34.83650719984336</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -938,12 +832,6 @@
       <c r="B18" t="n">
         <v>21</v>
       </c>
-      <c r="C18" t="n">
-        <v>6.079290489776307</v>
-      </c>
-      <c r="D18" t="n">
-        <v>35.49536733304802</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -952,12 +840,6 @@
       <c r="B19" t="n">
         <v>21</v>
       </c>
-      <c r="C19" t="n">
-        <v>7.827125479791554</v>
-      </c>
-      <c r="D19" t="n">
-        <v>36.03957524738408</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -966,12 +848,6 @@
       <c r="B20" t="n">
         <v>21</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.46364533686632</v>
-      </c>
-      <c r="D20" t="n">
-        <v>37.0147471059265</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -980,12 +856,6 @@
       <c r="B21" t="n">
         <v>21</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.299777153682541</v>
-      </c>
-      <c r="D21" t="n">
-        <v>36.18198519644645</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -994,12 +864,6 @@
       <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>7.199988969799558</v>
-      </c>
-      <c r="D22" t="n">
-        <v>36.34894828931417</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1008,12 +872,6 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="n">
-        <v>8.471067964058888</v>
-      </c>
-      <c r="D23" t="n">
-        <v>36.21702766892296</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1022,12 +880,6 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.273352772438047</v>
-      </c>
-      <c r="D24" t="n">
-        <v>37.15463035124446</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1035,12 +887,6 @@
       </c>
       <c r="B25" t="n">
         <v>22</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.240718328949457</v>
-      </c>
-      <c r="D25" t="n">
-        <v>36.70630594216842</v>
       </c>
     </row>
   </sheetData>
